--- a/React/React_Memo.xlsx
+++ b/React/React_Memo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\hachix\study\HACHIX_STUDY\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hachix\repos\HACHIX_STUDY\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB4B76-7B42-4EFD-8F56-F95763A7D83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5009FBCC-A612-4DBB-8FF6-962F4CDA665E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CF10ABB5-A789-4744-8845-DA7C6ED527D3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF10ABB5-A789-4744-8845-DA7C6ED527D3}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicConcept" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q3: useStateとは?</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>npm  install - g create-react-app</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -58,6 +54,10 @@
   </si>
   <si>
     <t>npm start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q3: What is React Component?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -328,6 +328,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86894</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>47997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA12AE6-0F51-43E4-AB14-230418FCA5DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="16192500"/>
+          <a:ext cx="8373644" cy="2667372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -501,6 +545,50 @@
         <a:xfrm>
           <a:off x="719383" y="12687300"/>
           <a:ext cx="5321102" cy="2353398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200631</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>162346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCB433C-3197-4822-945C-830A6B408A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="15240000"/>
+          <a:ext cx="4344006" cy="3019846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -811,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368C3106-17BD-4C77-8313-D8CFFFE11A58}">
   <dimension ref="A1:A67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="Y82" sqref="Y82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -829,7 +917,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -844,25 +932,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E9021-7902-413F-B5E4-3CA74928BFE5}">
   <dimension ref="B7:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="7" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="16:16" x14ac:dyDescent="0.4">
       <c r="P14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.4">

--- a/React/React_Memo.xlsx
+++ b/React/React_Memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hachix\repos\HACHIX_STUDY\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5009FBCC-A612-4DBB-8FF6-962F4CDA665E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D1DE0-1E22-43CB-A488-27784F3D98F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF10ABB5-A789-4744-8845-DA7C6ED527D3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Q1: What was that "App" function?</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>Q3: What is React Component?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q4: What is JSX</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -230,7 +234,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="981076" y="4933950"/>
+          <a:off x="981076" y="4457700"/>
           <a:ext cx="6858000" cy="3303499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -274,7 +278,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="8951349"/>
+          <a:off x="752475" y="8475099"/>
           <a:ext cx="6812642" cy="3308427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -318,7 +322,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714374" y="12617503"/>
+          <a:off x="714374" y="12141253"/>
           <a:ext cx="6783983" cy="3309361"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -330,14 +334,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>86894</xdr:colOff>
+      <xdr:colOff>58319</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>47997</xdr:rowOff>
     </xdr:to>
@@ -362,7 +366,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="276225" y="16192500"/>
+          <a:off x="247650" y="16192500"/>
           <a:ext cx="8373644" cy="2667372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -370,6 +374,405 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>48130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97EA7EEA-E2A8-4AB2-B7E0-96FAF15C41B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="19288125"/>
+          <a:ext cx="6630325" cy="3620005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>239012</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>48082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D421FF76-C821-4FEB-A055-C1C974A1CE60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514350" y="22964775"/>
+          <a:ext cx="6354062" cy="3277057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>195885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7033CE0-F166-4988-A384-DE97A2887E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8477251" y="22812375"/>
+          <a:ext cx="4533900" cy="1434135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA590DC3-47BA-4FEE-8504-FDA04F04F73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6724650" y="23498175"/>
+          <a:ext cx="1666875" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>29272</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E8FFD-8B29-486F-BC3B-B09357B7815D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="24336375"/>
+          <a:ext cx="4991797" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24751985-4058-4BBF-BBC1-F746E802D01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6762750" y="24660226"/>
+          <a:ext cx="2057400" cy="495299"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="790601" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710CAB17-DB0B-4BC1-92A0-C4ECEC02ABF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10534650" y="24612600"/>
+          <a:ext cx="790601" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>html: class</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>157176</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>112160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3262617C-4A30-4C64-9816-5C98F8E12FBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10929951" y="24877160"/>
+          <a:ext cx="4749" cy="221215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -897,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368C3106-17BD-4C77-8313-D8CFFFE11A58}">
-  <dimension ref="A1:A67"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="Y82" sqref="Y82"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="AE89" sqref="AE89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -918,6 +1321,11 @@
     <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/React/React_Memo.xlsx
+++ b/React/React_Memo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hachix\repos\HACHIX_STUDY\React\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\hachix\study\HACHIX_STUDY\React\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D1DE0-1E22-43CB-A488-27784F3D98F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABC219C-2E56-453F-B0E0-F18B9E157BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF10ABB5-A789-4744-8845-DA7C6ED527D3}"/>
+    <workbookView xWindow="-23490" yWindow="5745" windowWidth="21600" windowHeight="11385" xr2:uid="{CF10ABB5-A789-4744-8845-DA7C6ED527D3}"/>
   </bookViews>
   <sheets>
     <sheet name="BasicConcept" sheetId="1" r:id="rId1"/>
@@ -380,13 +380,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>925</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>48130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -424,13 +424,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>239012</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>48082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +468,13 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>195885</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -512,13 +512,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -565,13 +565,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
       <xdr:colOff>29272</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -609,13 +609,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -662,7 +662,7 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="790601" cy="264560"/>
@@ -721,13 +721,13 @@
     <xdr:from>
       <xdr:col>39</xdr:col>
       <xdr:colOff>157176</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>112160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -775,6 +775,176 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>134148</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464AB93F-AA5B-447F-9CD4-66FB3D44EE9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="18897600"/>
+          <a:ext cx="5715798" cy="2372056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1540678" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673A7A99-AB22-4249-BAA2-93E52FE00A23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="2447925"/>
+          <a:ext cx="1540678" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>JSX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> javascript extension</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2000035" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71CCA770-8C64-45FB-9188-01191B794D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="13916025"/>
+          <a:ext cx="2000035" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DOM:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> Document Object  Model</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1300,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368C3106-17BD-4C77-8313-D8CFFFE11A58}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="AE89" sqref="AE89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1323,8 +1493,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A81" s="2" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1340,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7E9021-7902-413F-B5E4-3CA74928BFE5}">
   <dimension ref="B7:P55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="AB20" sqref="AB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
